--- a/Data/Processed/Angiosperms/missing_powo_ipni/Podostemaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Podostemaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 574. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 574. 1911</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 576. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 576. 1911</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 575. 1911</t>
         </is>
       </c>
       <c r="J51" t="b">
